--- a/SPPSApi/Doc/Template/FS0628.xlsx
+++ b/SPPSApi/Doc/Template/FS0628.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>订单号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -95,6 +95,18 @@
   </si>
   <si>
     <t>预计纳期  格式2020/08/09</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进度状态管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iAutoId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单处理日</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -138,9 +150,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -442,73 +456,84 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O1"/>
+  <dimension ref="A1:R1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.81640625" style="1" customWidth="1"/>
-    <col min="2" max="3" width="8.7265625" style="1"/>
-    <col min="4" max="4" width="9.7265625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.81640625" style="1" customWidth="1"/>
     <col min="5" max="6" width="8.7265625" style="1"/>
-    <col min="7" max="7" width="11.36328125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.7265625" style="1"/>
-    <col min="9" max="9" width="14.36328125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="11.453125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="11.90625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="11.453125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="12.26953125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="11.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="25.08984375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.7265625" style="1" customWidth="1"/>
+    <col min="8" max="9" width="8.7265625" style="1"/>
+    <col min="10" max="10" width="11.36328125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="8.7265625" style="1"/>
+    <col min="12" max="12" width="14.36328125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="11.453125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="11.90625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.453125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.26953125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="11.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="25.08984375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>14</v>
       </c>
     </row>
@@ -522,13 +547,13 @@
           <x14:formula1>
             <xm:f>注意事项!$B$2:$B$3</xm:f>
           </x14:formula1>
-          <xm:sqref>C2:C1048576</xm:sqref>
+          <xm:sqref>F2:F1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>注意事项!$D$2:$D$3</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D1048576</xm:sqref>
+          <xm:sqref>G2:G1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -538,13 +563,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F3"/>
+  <dimension ref="B2:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15.7265625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
@@ -566,6 +594,18 @@
       </c>
       <c r="F3" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="2">
+        <f ca="1">NOW()</f>
+        <v>44256.648723842591</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="3">
+        <f ca="1">TODAY()</f>
+        <v>44256</v>
       </c>
     </row>
   </sheetData>

--- a/SPPSApi/Doc/Template/FS0628.xlsx
+++ b/SPPSApi/Doc/Template/FS0628.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>订单号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -95,18 +95,6 @@
   </si>
   <si>
     <t>预计纳期  格式2020/08/09</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>进度状态管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iAutoId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单处理日</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -150,11 +138,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -456,84 +442,73 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R1"/>
+  <dimension ref="A1:O1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.36328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.81640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.81640625" style="1" customWidth="1"/>
+    <col min="2" max="3" width="8.7265625" style="1"/>
+    <col min="4" max="4" width="9.7265625" style="1" customWidth="1"/>
     <col min="5" max="6" width="8.7265625" style="1"/>
-    <col min="7" max="7" width="9.7265625" style="1" customWidth="1"/>
-    <col min="8" max="9" width="8.7265625" style="1"/>
-    <col min="10" max="10" width="11.36328125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="8.7265625" style="1"/>
-    <col min="12" max="12" width="14.36328125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="11.453125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="11.90625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.453125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.26953125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="11.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="25.08984375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.36328125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.7265625" style="1"/>
+    <col min="9" max="9" width="14.36328125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="11.453125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="11.90625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="11.453125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="12.26953125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="11.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="25.08984375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" t="s">
-        <v>23</v>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="R1" s="1" t="s">
         <v>14</v>
       </c>
     </row>
@@ -547,13 +522,13 @@
           <x14:formula1>
             <xm:f>注意事项!$B$2:$B$3</xm:f>
           </x14:formula1>
-          <xm:sqref>F2:F1048576</xm:sqref>
+          <xm:sqref>C2:C1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>注意事项!$D$2:$D$3</xm:f>
           </x14:formula1>
-          <xm:sqref>G2:G1048576</xm:sqref>
+          <xm:sqref>D2:D1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -563,16 +538,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F6"/>
+  <dimension ref="B2:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="15.7265625" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
@@ -594,18 +566,6 @@
       </c>
       <c r="F3" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="2">
-        <f ca="1">NOW()</f>
-        <v>44256.648723842591</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="3">
-        <f ca="1">TODAY()</f>
-        <v>44256</v>
       </c>
     </row>
   </sheetData>

--- a/SPPSApi/Doc/Template/FS0628.xlsx
+++ b/SPPSApi/Doc/Template/FS0628.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>订单号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -34,10 +34,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>发注工厂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>受入</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -50,10 +46,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>出荷场代码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>车型编码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -95,6 +87,26 @@
   </si>
   <si>
     <t>预计纳期  格式2020/08/09</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iAutoId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进度状态管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单处理日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发注工场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出荷场</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -442,74 +454,86 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O1"/>
+  <dimension ref="A1:R1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.81640625" style="1" customWidth="1"/>
-    <col min="2" max="3" width="8.7265625" style="1"/>
-    <col min="4" max="4" width="9.7265625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.54296875" customWidth="1"/>
+    <col min="4" max="4" width="14.81640625" style="1" customWidth="1"/>
     <col min="5" max="6" width="8.7265625" style="1"/>
-    <col min="7" max="7" width="11.36328125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.7265625" style="1"/>
-    <col min="9" max="9" width="14.36328125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="11.453125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="11.90625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="11.453125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="12.26953125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="11.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="25.08984375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.7265625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.6328125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.7265625" style="1"/>
+    <col min="10" max="10" width="11.36328125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="8.7265625" style="1"/>
+    <col min="12" max="12" width="14.36328125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="11.453125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="11.90625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.453125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.26953125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="11.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="25.08984375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="L1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -522,13 +546,13 @@
           <x14:formula1>
             <xm:f>注意事项!$B$2:$B$3</xm:f>
           </x14:formula1>
-          <xm:sqref>C2:C1048576</xm:sqref>
+          <xm:sqref>F2:F1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>注意事项!$D$2:$D$3</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D1048576</xm:sqref>
+          <xm:sqref>G2:G1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -548,24 +572,24 @@
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
         <v>15</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>17</v>
-      </c>
-      <c r="F2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
         <v>16</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
         <v>18</v>
-      </c>
-      <c r="F3" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/SPPSApi/Doc/Template/FS0628.xlsx
+++ b/SPPSApi/Doc/Template/FS0628.xlsx
@@ -46,10 +46,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>车型编码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>订货数量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -94,10 +90,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>进度状态管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>订单处理日</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -107,6 +99,14 @@
   </si>
   <si>
     <t>出荷场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进度状态</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -114,6 +114,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -150,9 +153,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -457,13 +461,13 @@
   <dimension ref="A1:R1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.54296875" customWidth="1"/>
+    <col min="3" max="3" width="13.54296875" style="2" customWidth="1"/>
     <col min="4" max="4" width="14.81640625" style="1" customWidth="1"/>
     <col min="5" max="6" width="8.7265625" style="1"/>
     <col min="7" max="7" width="9.7265625" style="1" customWidth="1"/>
@@ -474,7 +478,7 @@
     <col min="12" max="12" width="14.36328125" style="1" customWidth="1"/>
     <col min="13" max="13" width="11.453125" style="1" customWidth="1"/>
     <col min="14" max="14" width="11.90625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.453125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.453125" style="2" customWidth="1"/>
     <col min="16" max="16" width="12.26953125" style="1" customWidth="1"/>
     <col min="17" max="17" width="11.36328125" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="25.08984375" style="1" customWidth="1"/>
@@ -482,13 +486,13 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="B1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" t="s">
-        <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
@@ -503,7 +507,7 @@
         <v>3</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>4</v>
@@ -515,25 +519,25 @@
         <v>6</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -572,24 +576,24 @@
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/SPPSApi/Doc/Template/FS0628.xlsx
+++ b/SPPSApi/Doc/Template/FS0628.xlsx
@@ -9,14 +9,14 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="注意事项" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="实例" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" calcOnSave="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="46">
   <si>
     <t>订单号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -107,6 +107,88 @@
   </si>
   <si>
     <t>进度状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iAutoId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进度状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单处理日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品番</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内外</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发注工场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出荷场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订货数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预计纳期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单回数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HK803401</t>
+  </si>
+  <si>
+    <t>123610V04100</t>
+  </si>
+  <si>
+    <t>#1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HA</t>
+  </si>
+  <si>
+    <t>123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>335040P010C0</t>
+  </si>
+  <si>
+    <t>33560F411000</t>
+  </si>
+  <si>
+    <t>426030E04000</t>
+  </si>
+  <si>
+    <t>HD</t>
+  </si>
+  <si>
+    <t>注意：1.绿色的列可用不输入
+2.红色的列数据必须输入</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -117,7 +199,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -132,13 +214,39 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -153,10 +261,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -461,7 +589,7 @@
   <dimension ref="A1:R1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -604,12 +732,286 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:R12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" customWidth="1"/>
+    <col min="5" max="5" width="12.08984375" customWidth="1"/>
+    <col min="10" max="10" width="10.7265625" customWidth="1"/>
+    <col min="15" max="15" width="12.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C2" s="3">
+        <v>44277</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J2" s="5">
+        <v>1060</v>
+      </c>
+      <c r="K2" s="5">
+        <v>0</v>
+      </c>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N2" s="5">
+        <v>6</v>
+      </c>
+      <c r="O2" s="6">
+        <v>44280</v>
+      </c>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C3" s="3">
+        <v>44277</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J3" s="5">
+        <v>1270</v>
+      </c>
+      <c r="K3" s="5">
+        <v>0</v>
+      </c>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N3" s="5">
+        <v>7</v>
+      </c>
+      <c r="O3" s="6">
+        <v>44280</v>
+      </c>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C4" s="3">
+        <v>44277</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J4" s="5">
+        <v>1270</v>
+      </c>
+      <c r="K4" s="5">
+        <v>0</v>
+      </c>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N4" s="5">
+        <v>2</v>
+      </c>
+      <c r="O4" s="6">
+        <v>44280</v>
+      </c>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C5" s="3">
+        <v>44277</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J5" s="5">
+        <v>1570</v>
+      </c>
+      <c r="K5" s="5">
+        <v>0</v>
+      </c>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N5" s="5">
+        <v>16</v>
+      </c>
+      <c r="O5" s="6">
+        <v>44280</v>
+      </c>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D8" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D8:H12"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/SPPSApi/Doc/Template/FS0628.xlsx
+++ b/SPPSApi/Doc/Template/FS0628.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="注意事项" sheetId="2" r:id="rId2"/>
+    <sheet name="注意事项" sheetId="2" state="hidden" r:id="rId2"/>
     <sheet name="实例" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="61">
   <si>
     <t>订单号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -78,10 +78,6 @@
     <t>旧型</t>
   </si>
   <si>
-    <t>发注工厂写 1 2 3就可以</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>预计纳期  格式2020/08/09</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -110,85 +106,133 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>进度状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单处理日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品番</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内外</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发注工场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出荷场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订货数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预计纳期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单回数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HK803401</t>
+  </si>
+  <si>
+    <t>123610V04100</t>
+  </si>
+  <si>
+    <t>#1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HA</t>
+  </si>
+  <si>
+    <t>123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>335040P010C0</t>
+  </si>
+  <si>
+    <t>HD</t>
+  </si>
+  <si>
+    <t>已导入</t>
+  </si>
+  <si>
+    <t>2021/04/27</t>
+  </si>
+  <si>
+    <t>HL423409</t>
+  </si>
+  <si>
+    <t>716200R02000</t>
+  </si>
+  <si>
+    <t>#2</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>560L</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>2021050701E1</t>
+  </si>
+  <si>
+    <t>894650245000</t>
+  </si>
+  <si>
+    <t>2730</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>260B</t>
+  </si>
+  <si>
+    <t>2021/05/08</t>
+  </si>
+  <si>
+    <t>2021050801E1</t>
+  </si>
+  <si>
     <t>iAutoId</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>进度状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单处理日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>品番</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>内外</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发注工场</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工区</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>出荷场</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>订货数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>预计纳期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单回数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HK803401</t>
-  </si>
-  <si>
-    <t>123610V04100</t>
-  </si>
-  <si>
-    <t>#1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HA</t>
-  </si>
-  <si>
-    <t>123</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>335040P010C0</t>
-  </si>
-  <si>
-    <t>33560F411000</t>
-  </si>
-  <si>
-    <t>426030E04000</t>
-  </si>
-  <si>
-    <t>HD</t>
-  </si>
-  <si>
-    <t>注意：1.绿色的列可用不输入
-2.红色的列数据必须输入</t>
+    <t>2021/10/25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021/11/17</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -199,7 +243,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -222,6 +266,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
@@ -229,7 +287,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -248,6 +306,30 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -258,36 +340,65 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -297,6 +408,290 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>546100</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="矩形 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="546100" y="1009650"/>
+          <a:ext cx="10594975" cy="1708150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1050" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>导入文件说明：</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1050" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1050">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1050">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>蓝色数据代表新增</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1050">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1050">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>注意事项：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1050">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>1.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1050">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>绿色的列头不可填写 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1050">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>2.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1050">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>红色的列数据必须填写</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1050">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1050">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>橘色数据代表修改</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1050">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1050">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>注意事项：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1050">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>1.iAutoId</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1050">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>列值不能修改 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1050">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>2.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1050">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>修改项仅限于预计纳期和订单回数</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -589,7 +984,7 @@
   <dimension ref="A1:R1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -614,13 +1009,13 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="B1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
@@ -635,7 +1030,7 @@
         <v>3</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>4</v>
@@ -647,10 +1042,10 @@
         <v>6</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>7</v>
@@ -697,7 +1092,7 @@
   <dimension ref="B2:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -709,9 +1104,6 @@
       <c r="D2" t="s">
         <v>14</v>
       </c>
-      <c r="F2" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
@@ -721,7 +1113,7 @@
         <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -735,7 +1127,7 @@
   <dimension ref="A1:R12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -743,276 +1135,344 @@
     <col min="3" max="3" width="11.36328125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
     <col min="5" max="5" width="12.08984375" customWidth="1"/>
-    <col min="10" max="10" width="10.7265625" customWidth="1"/>
-    <col min="15" max="15" width="12.6328125" customWidth="1"/>
+    <col min="7" max="7" width="9.54296875" customWidth="1"/>
+    <col min="8" max="8" width="10.81640625" customWidth="1"/>
+    <col min="10" max="10" width="11.81640625" customWidth="1"/>
+    <col min="15" max="15" width="13.81640625" customWidth="1"/>
+    <col min="16" max="16" width="10" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="D1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="F1" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="P1" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q1" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="R1" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="11">
+        <v>44277</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" s="14">
+        <v>1060</v>
+      </c>
+      <c r="K2" s="14">
         <v>0</v>
       </c>
-      <c r="E1" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N1" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="P1" s="1" t="s">
+      <c r="L2" s="13"/>
+      <c r="M2" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="N2" s="14">
+        <v>6</v>
+      </c>
+      <c r="O2" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
+    </row>
+    <row r="3" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="11">
+        <v>44277</v>
+      </c>
+      <c r="D3" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="Q1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="E3" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="J3" s="14">
+        <v>1270</v>
+      </c>
+      <c r="K3" s="14">
+        <v>0</v>
+      </c>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="N3" s="14">
+        <v>7</v>
+      </c>
+      <c r="O3" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="13"/>
+      <c r="R3" s="13"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C2" s="3">
-        <v>44277</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2" s="4" t="s">
+    <row r="4" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="15">
+        <v>1</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="I4" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="J4" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="K4" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="L4" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="M4" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="N4" s="15">
+        <v>1</v>
+      </c>
+      <c r="O4" s="17">
+        <v>44323</v>
+      </c>
+      <c r="P4" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q4" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="R4" s="15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="15">
+        <v>2</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="I5" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J2" s="5">
-        <v>1060</v>
-      </c>
-      <c r="K2" s="5">
-        <v>0</v>
-      </c>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="N2" s="5">
-        <v>6</v>
-      </c>
-      <c r="O2" s="6">
-        <v>44280</v>
-      </c>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
+      <c r="J5" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="K5" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="L5" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="M5" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="N5" s="15">
+        <v>2</v>
+      </c>
+      <c r="O5" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="P5" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q5" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="R5" s="15" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C3" s="3">
-        <v>44277</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J3" s="5">
-        <v>1270</v>
-      </c>
-      <c r="K3" s="5">
-        <v>0</v>
-      </c>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="N3" s="5">
-        <v>7</v>
-      </c>
-      <c r="O3" s="6">
-        <v>44280</v>
-      </c>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C4" s="3">
-        <v>44277</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J4" s="5">
-        <v>1270</v>
-      </c>
-      <c r="K4" s="5">
-        <v>0</v>
-      </c>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="N4" s="5">
-        <v>2</v>
-      </c>
-      <c r="O4" s="6">
-        <v>44280</v>
-      </c>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C5" s="3">
-        <v>44277</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="J5" s="5">
-        <v>1570</v>
-      </c>
-      <c r="K5" s="5">
-        <v>0</v>
-      </c>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="N5" s="5">
-        <v>16</v>
-      </c>
-      <c r="O5" s="6">
-        <v>44280</v>
-      </c>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="D8" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
+    <row r="8" spans="1:18" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="D8:H12"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>